--- a/betacom/zadanierekrutacyjnebetacoms_a_/InputTmp.xlsx
+++ b/betacom/zadanierekrutacyjnebetacoms_a_/InputTmp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ja\moje\moje\uipath\betacom\zadanierekrutacyjnebetacoms_a_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AB0CEA-C262-43D9-9F50-8F79018CEE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A300E95-1B00-426D-A9A9-2CBCD5037749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4212" yWindow="2568" windowWidth="17280" windowHeight="8964" xr2:uid="{0CB34D68-E816-480A-B3B3-92DF85DBED46}"/>
+    <workbookView xWindow="4560" yWindow="2916" windowWidth="17280" windowHeight="8964" xr2:uid="{0CB34D68-E816-480A-B3B3-92DF85DBED46}"/>
   </bookViews>
   <sheets>
     <sheet name="Dane" sheetId="1" r:id="rId1"/>
